--- a/biology/Médecine/Allergie_au_latex/Allergie_au_latex.xlsx
+++ b/biology/Médecine/Allergie_au_latex/Allergie_au_latex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allergie au latex (ou syndrome de sensibilité au latex) est une entité médicale qui désigne l'ensemble des réactions allergiques provoquées par le caoutchouc naturel, ou latex.
 </t>
@@ -511,7 +523,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le latex est à l'origine de deux formes d'allergie sur les 4 (ou 5) types d'hypersensibilité connues :
 Type 1 : Il s'agit de la forme la plus grave et la plus rare, l'hypersensibilité de type 1 est une réaction immédiate et potentiellement mortelle, les mécanismes physiopathologiques sont les mêmes que pour les réactions aux piqûres d'abeilles. Ces réactions représentent une proportion importante des chocs anaphylactiques consécutifs à une intervention chirurgicale, en particulier chez les enfants atteints de spina bifida.
@@ -547,11 +561,13 @@
           <t>Personnes à risque élevé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Enfants porteurs d'un myéloméningocèle (spina bifida). 40 % à 100 % d'entre eux présenteront une réaction.
 Les travailleurs de l'industrie du caoutchouc, exposés pendant de longues périodes à de grandes quantités de latex. Parmi eux environ 10 % présentent des réactions allergiques.
-Les professions de santé. Compte tenu de l'utilisation systématique de produits contenant du latex dans les établissements de santé, la gestion des allergies au latex pose d'importants problèmes organisationnels dans le secteur sanitaire. Les professionnels de santé qui utilisent fréquemment des gants en latex et d'autres dispositifs médicaux contenant du latex. Les métiers concernés sont ceux de pharmacien, médecin, infirmière, aides soignantes, dentistes, assistant(e)s dentaires, les techniciens de laboratoire, et le personnel de ménage des hôpitaux sont les salariés à risque pouvant développer une allergie au latex[1]. 4 à 15 % environ des professionnels de santé présentent une réaction, qui se manifeste généralement sous la forme d'une dermatite de contact par irritation, et peut aboutir par le biais d'une sensibilisation allergique au stade de choc anaphylactique, qui conduit généralement les victimes à abandonner leur profession[2]. Dans la tenue chirurgicale, ce risque potentiellement mortel de réaction allergique pour un patient a été jugé suffisamment élevé par l'Hôpital Johns-Hopkins pour remplacer tous les gants de chirurgie par des solutions de rechange en latex synthétique[3].
+Les professions de santé. Compte tenu de l'utilisation systématique de produits contenant du latex dans les établissements de santé, la gestion des allergies au latex pose d'importants problèmes organisationnels dans le secteur sanitaire. Les professionnels de santé qui utilisent fréquemment des gants en latex et d'autres dispositifs médicaux contenant du latex. Les métiers concernés sont ceux de pharmacien, médecin, infirmière, aides soignantes, dentistes, assistant(e)s dentaires, les techniciens de laboratoire, et le personnel de ménage des hôpitaux sont les salariés à risque pouvant développer une allergie au latex. 4 à 15 % environ des professionnels de santé présentent une réaction, qui se manifeste généralement sous la forme d'une dermatite de contact par irritation, et peut aboutir par le biais d'une sensibilisation allergique au stade de choc anaphylactique, qui conduit généralement les victimes à abandonner leur profession. Dans la tenue chirurgicale, ce risque potentiellement mortel de réaction allergique pour un patient a été jugé suffisamment élevé par l'Hôpital Johns-Hopkins pour remplacer tous les gants de chirurgie par des solutions de rechange en latex synthétique.
 Les personnes qui ont eu de multiples interventions chirurgicales, en particulier dans l'enfance[réf. nécessaire].
 Les enfants de moins de 3 ans non allaités, utilisant des tétines au quotidien.</t>
         </is>
@@ -581,7 +597,9 @@
           <t>Incidence dans la population générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle varie probablement selon les pays et les métiers. Les estimations varient de 0,8 à 6,5 % de la population générale[réf. nécessaire], mais parmi ces derniers tous ne développeront pas une réaction allergique notable. Ce sont souvent des allergies croisées (voir ci-dessous).
 </t>
@@ -612,9 +630,11 @@
           <t>Latex et nourriture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines personnes qui ont une allergie au latex peuvent également présenter une réaction allergique à un certain nombre de produits végétaux, généralement des fruits. Ce fait est connu sous le nom de syndrome latex-fruits[4]. Les fruits (et les graines) impliquées dans ce syndrome sont notamment, la banane, l'ananas, l'avocat, la châtaigne, le kiwi, la mangue, les fruits de la passion, les fraises et le soja. Certains de ces fruits, mais pas tous, contiennent du latex. La Asthma and Allergy Foundation of America estime que près de 6 pour cent de la population des États-Unis présentent une allergie alimentaire et jusqu'à 4 pour cent une allergie au latex[5]. Des réactions peuvent également survenir lorsque l'on touche des produits alimentaires contenant du latex, dans les cas les plus graves. Il existe quelques cas connus d'allergies au latex provoqués par des organismes génétiquement modifiés tels que les tomates contenant des protéines de latex.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines personnes qui ont une allergie au latex peuvent également présenter une réaction allergique à un certain nombre de produits végétaux, généralement des fruits. Ce fait est connu sous le nom de syndrome latex-fruits. Les fruits (et les graines) impliquées dans ce syndrome sont notamment, la banane, l'ananas, l'avocat, la châtaigne, le kiwi, la mangue, les fruits de la passion, les fraises et le soja. Certains de ces fruits, mais pas tous, contiennent du latex. La Asthma and Allergy Foundation of America estime que près de 6 pour cent de la population des États-Unis présentent une allergie alimentaire et jusqu'à 4 pour cent une allergie au latex. Des réactions peuvent également survenir lorsque l'on touche des produits alimentaires contenant du latex, dans les cas les plus graves. Il existe quelques cas connus d'allergies au latex provoqués par des organismes génétiquement modifiés tels que les tomates contenant des protéines de latex.
 Certaines personnes qui sont allergiques au latex ont présenté des réactions allergiques à des aliments qui ont été traités ou préparés par des personnes portant des gants en latex.
 </t>
         </is>
@@ -644,7 +664,9 @@
           <t>Reconnaissance comme maladie professionnelle en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une allergie au latex peut être reconnue, en France, comme maladie professionnelle sous certaines conditions. Ce tableau définit les critères à prendre en compte pour qu'une allergie au latex soit prise en charge au titre de la maladie professionnelle :
 </t>
